--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,13 +452,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Appointment.extension:MedioNotificacion</t>
-  </si>
-  <si>
-    <t>MedioNotificacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MedioNotificacion}
+    <t>Appointment.extension:MediodeContacto</t>
+  </si>
+  <si>
+    <t>MediodeContacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MediodeContacto}
 </t>
   </si>
   <si>
@@ -482,9 +482,6 @@
     <t>Extensión compleja, donde se indica si el paciente fue Contactado[true|false] o MotivoNoContactabilidad si la anterior fue false</t>
   </si>
   <si>
-    <t>Contactado</t>
-  </si>
-  <si>
     <t>Appointment.modifierExtension</t>
   </si>
   <si>
@@ -515,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t>Ids externos</t>
+    <t>ID de los identificadores de la cita</t>
   </si>
   <si>
     <t>This records identifiers associated with this appointment concern that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
@@ -735,7 +732,7 @@
     <t>Appointment.status</t>
   </si>
   <si>
-    <t>Se considera el uso de SOLO estos estados: booked=cita agendada | cancelled=cita cancelada | noshow=no presentación</t>
+    <t>Se considera el uso de SOLO estos estados: pending=pendiente | booked=cita agendada | cancelled=cita cancelada | noshow=no presentación</t>
   </si>
   <si>
     <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
@@ -1456,7 +1453,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PatientLE|https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerRoleLE)
 </t>
   </si>
   <si>
@@ -1673,10 +1670,7 @@
     <t>Appointment.participant:patientLE.status</t>
   </si>
   <si>
-    <t>Estado, por defecto #accepted</t>
-  </si>
-  <si>
-    <t>accepted</t>
+    <t xml:space="preserve">Estado de la cita, este puede ser "accepted | declined | tentative | needs-action" </t>
   </si>
   <si>
     <t>Appointment.participant:patientLE.period</t>
@@ -1735,6 +1729,12 @@
   </si>
   <si>
     <t>Appointment.participant:practitionerRoleLE.status</t>
+  </si>
+  <si>
+    <t>Estado, por defecto #accepted</t>
+  </si>
+  <si>
+    <t>accepted</t>
   </si>
   <si>
     <t>Appointment.participant:practitionerRoleLE.period</t>
@@ -2095,7 +2095,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="155.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3333,7 +3333,7 @@
         <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3416,14 +3416,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3445,16 +3445,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3503,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3561,13 +3561,13 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3618,7 +3618,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3633,27 +3633,27 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3676,13 +3676,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3733,25 +3733,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3765,14 +3765,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3794,13 +3794,13 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3841,7 +3841,7 @@
         <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
@@ -3850,7 +3850,7 @@
         <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3868,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3899,7 +3899,7 @@
         <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>89</v>
@@ -3911,16 +3911,16 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3945,31 +3945,31 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3987,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4027,19 +4027,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4064,31 +4064,31 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4106,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4115,15 +4115,15 @@
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4137,7 +4137,7 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
@@ -4149,16 +4149,16 @@
         <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4171,43 +4171,43 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4225,24 +4225,24 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4265,16 +4265,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4288,43 +4288,43 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4342,24 +4342,24 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4382,13 +4382,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4439,7 +4439,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4457,24 +4457,24 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4497,16 +4497,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4556,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4574,24 +4574,24 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4617,13 +4617,13 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4649,14 +4649,14 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4688,27 +4688,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4731,13 +4731,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4764,11 +4764,11 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4786,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4804,7 +4804,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4818,10 +4818,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4844,13 +4844,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4901,25 +4901,25 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4933,14 +4933,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4962,13 +4962,13 @@
         <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5009,7 +5009,7 @@
         <v>136</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
@@ -5018,7 +5018,7 @@
         <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5036,7 +5036,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5076,19 +5076,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5137,7 +5137,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5155,24 +5155,24 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5195,13 +5195,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5252,25 +5252,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5284,14 +5284,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5313,13 +5313,13 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5360,7 +5360,7 @@
         <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
@@ -5369,7 +5369,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5387,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5430,16 +5430,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5449,46 +5449,46 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5506,24 +5506,24 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5546,16 +5546,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5605,7 +5605,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5623,24 +5623,24 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5666,14 +5666,14 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5722,7 +5722,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5740,24 +5740,24 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5780,17 +5780,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5839,7 +5839,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5857,24 +5857,24 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5897,19 +5897,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5958,7 +5958,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5976,24 +5976,24 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6016,19 +6016,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6077,7 +6077,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6095,24 +6095,24 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6135,13 +6135,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6168,11 +6168,11 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6190,7 +6190,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6208,10 +6208,10 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6248,16 +6248,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6283,11 +6283,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6305,7 +6305,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6320,10 +6320,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6363,13 +6363,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6418,7 +6418,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6436,13 +6436,13 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6476,13 +6476,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6531,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6549,24 +6549,24 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6589,13 +6589,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6646,25 +6646,25 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6678,14 +6678,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6707,13 +6707,13 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6754,7 +6754,7 @@
         <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
@@ -6763,7 +6763,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6781,7 +6781,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6795,10 +6795,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6821,19 +6821,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6882,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6900,24 +6900,24 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6940,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6997,25 +6997,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7029,14 +7029,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7058,13 +7058,13 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7105,7 +7105,7 @@
         <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
@@ -7114,7 +7114,7 @@
         <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7132,7 +7132,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7175,16 +7175,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7233,7 +7233,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7251,24 +7251,24 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7291,16 +7291,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7350,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7368,24 +7368,24 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7411,14 +7411,14 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7467,7 +7467,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7485,24 +7485,24 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7525,17 +7525,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7584,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7602,24 +7602,24 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7642,19 +7642,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7703,7 +7703,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7721,24 +7721,24 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7761,19 +7761,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7822,7 +7822,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7840,24 +7840,24 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7880,13 +7880,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7916,11 +7916,11 @@
         <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7952,27 +7952,27 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7995,13 +7995,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8052,7 +8052,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8067,10 +8067,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -8084,10 +8084,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8110,16 +8110,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8169,7 +8169,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8184,27 +8184,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8227,13 +8227,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8284,7 +8284,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8302,24 +8302,24 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8342,13 +8342,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8399,7 +8399,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8414,16 +8414,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8431,10 +8431,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8457,13 +8457,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8514,7 +8514,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8529,27 +8529,27 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8572,13 +8572,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8629,7 +8629,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8644,27 +8644,27 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8687,13 +8687,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8744,7 +8744,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8759,13 +8759,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8776,10 +8776,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8802,13 +8802,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8859,7 +8859,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8877,7 +8877,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8891,10 +8891,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8902,13 +8902,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>77</v>
@@ -8917,16 +8917,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8976,7 +8976,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8991,13 +8991,13 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -9008,10 +9008,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9034,16 +9034,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9093,7 +9093,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9108,27 +9108,27 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9151,13 +9151,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9208,7 +9208,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9226,28 +9226,28 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9266,13 +9266,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9323,7 +9323,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9338,10 +9338,10 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9355,10 +9355,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9366,10 +9366,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>89</v>
@@ -9381,13 +9381,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9426,10 +9426,10 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AC63" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
@@ -9438,7 +9438,7 @@
         <v>137</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9450,30 +9450,30 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9496,13 +9496,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9553,25 +9553,25 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9585,14 +9585,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9614,13 +9614,13 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9670,7 +9670,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9688,7 +9688,7 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9702,14 +9702,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9731,16 +9731,16 @@
         <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N66" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9789,7 +9789,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9821,10 +9821,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9847,16 +9847,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9882,14 +9882,14 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9924,24 +9924,24 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9964,13 +9964,13 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10021,7 +10021,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10039,24 +10039,24 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10082,10 +10082,10 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10112,14 +10112,14 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10154,10 +10154,10 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10168,10 +10168,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10197,10 +10197,10 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10227,14 +10227,14 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -10269,24 +10269,24 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10309,13 +10309,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10366,7 +10366,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10384,7 +10384,7 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10398,13 +10398,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
@@ -10426,13 +10426,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10483,7 +10483,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10495,30 +10495,30 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10541,13 +10541,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10598,25 +10598,25 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10630,14 +10630,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10659,13 +10659,13 @@
         <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10715,7 +10715,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10733,7 +10733,7 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10747,14 +10747,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10776,16 +10776,16 @@
         <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N75" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O75" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10834,7 +10834,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10892,16 +10892,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10927,14 +10927,14 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10969,24 +10969,24 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11009,13 +11009,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11066,7 +11066,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11084,24 +11084,24 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AO77" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11124,13 +11124,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11181,25 +11181,25 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11213,14 +11213,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11242,13 +11242,13 @@
         <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N79" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11289,7 +11289,7 @@
         <v>136</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
@@ -11298,7 +11298,7 @@
         <v>137</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11316,7 +11316,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11330,10 +11330,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11341,13 +11341,13 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>77</v>
@@ -11356,16 +11356,16 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11415,16 +11415,16 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI80" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11447,10 +11447,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11476,13 +11476,13 @@
         <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11493,46 +11493,46 @@
         <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="Z81" t="s" s="2">
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11564,10 +11564,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11590,16 +11590,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11649,7 +11649,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11667,7 +11667,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11681,10 +11681,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11707,16 +11707,16 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11766,7 +11766,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11798,10 +11798,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11827,10 +11827,10 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11857,14 +11857,14 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11899,10 +11899,10 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11913,10 +11913,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11942,10 +11942,10 @@
         <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11957,7 +11957,7 @@
         <v>77</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>534</v>
+        <v>77</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>77</v>
@@ -11972,14 +11972,14 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>88</v>
@@ -12014,24 +12014,24 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12054,13 +12054,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12111,7 +12111,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12129,7 +12129,7 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12143,13 +12143,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>77</v>
@@ -12171,13 +12171,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12228,7 +12228,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>88</v>
@@ -12240,30 +12240,30 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO87" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12286,13 +12286,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12343,25 +12343,25 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12375,14 +12375,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12404,13 +12404,13 @@
         <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12460,7 +12460,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12478,7 +12478,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12492,14 +12492,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12521,16 +12521,16 @@
         <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="N90" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12579,7 +12579,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12637,16 +12637,16 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12672,14 +12672,14 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12714,24 +12714,24 @@
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12754,13 +12754,13 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12811,7 +12811,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12829,24 +12829,24 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12869,13 +12869,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12926,25 +12926,25 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12958,14 +12958,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12987,13 +12987,13 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="N94" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13034,7 +13034,7 @@
         <v>136</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
@@ -13043,7 +13043,7 @@
         <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13061,7 +13061,7 @@
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13075,10 +13075,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13086,13 +13086,13 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -13101,16 +13101,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13160,16 +13160,16 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
@@ -13192,10 +13192,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13221,13 +13221,13 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13238,7 +13238,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -13253,31 +13253,31 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="Z96" t="s" s="2">
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13309,10 +13309,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13335,16 +13335,16 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13394,7 +13394,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13412,7 +13412,7 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13426,10 +13426,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13452,16 +13452,16 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13511,7 +13511,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13543,10 +13543,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13572,10 +13572,10 @@
         <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13602,14 +13602,14 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13644,10 +13644,10 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>77</v>
@@ -13658,10 +13658,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13687,10 +13687,10 @@
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13702,7 +13702,7 @@
         <v>77</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>77</v>
@@ -13717,14 +13717,14 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13759,16 +13759,16 @@
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="101" hidden="true">
@@ -13776,7 +13776,7 @@
         <v>554</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13799,13 +13799,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13856,7 +13856,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13874,7 +13874,7 @@
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13914,7 +13914,7 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>556</v>
@@ -13988,7 +13988,7 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>559</v>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t>ID de los identificadores de la cita</t>
+    <t>ID del identificador de la cita</t>
   </si>
   <si>
     <t>This records identifiers associated with this appointment concern that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="562">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,17 +452,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Appointment.extension:MediodeContacto</t>
+    <t>Appointment.extension:ExtensionMediodeContacto</t>
+  </si>
+  <si>
+    <t>ExtensionMediodeContacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionMediodeContacto}
+</t>
+  </si>
+  <si>
+    <t>Medio por donde se notificó al paciente</t>
   </si>
   <si>
     <t>MediodeContacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MediodeContacto}
-</t>
-  </si>
-  <si>
-    <t>Medio por donde se notificó al paciente</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2087,7 +2090,7 @@
   <cols>
     <col min="1" max="1" width="58.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.09375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.92578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="26.09375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3216,7 +3219,7 @@
         <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3276,7 +3279,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3299,13 +3302,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -3327,13 +3330,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3393,7 +3396,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -3416,14 +3419,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3445,16 +3448,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3503,7 +3506,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3535,10 +3538,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3561,13 +3564,13 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3618,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3633,27 +3636,27 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3676,13 +3679,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3733,7 +3736,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3751,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3765,14 +3768,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3794,13 +3797,13 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3841,7 +3844,7 @@
         <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
@@ -3850,7 +3853,7 @@
         <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3868,7 +3871,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3882,10 +3885,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3911,16 +3914,16 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3945,13 +3948,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3969,7 +3972,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3987,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -4001,10 +4004,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4027,19 +4030,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4064,13 +4067,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -4088,7 +4091,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4109,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4115,15 +4118,15 @@
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4149,16 +4152,16 @@
         <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4171,7 +4174,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4207,7 +4210,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4225,7 +4228,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4234,15 +4237,15 @@
         <v>77</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4265,16 +4268,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4288,7 +4291,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4327,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4342,7 +4345,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4351,15 +4354,15 @@
         <v>77</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4382,13 +4385,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4439,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4457,7 +4460,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4466,15 +4469,15 @@
         <v>77</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4497,16 +4500,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4556,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4574,7 +4577,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4583,15 +4586,15 @@
         <v>77</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4617,13 +4620,13 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4649,13 +4652,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4673,7 +4676,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4688,27 +4691,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4731,13 +4734,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4764,11 +4767,11 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4789,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4804,7 +4807,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4818,10 +4821,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4844,13 +4847,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4901,7 +4904,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4919,7 +4922,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4933,14 +4936,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4962,13 +4965,13 @@
         <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5009,7 +5012,7 @@
         <v>136</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
@@ -5018,7 +5021,7 @@
         <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5036,7 +5039,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5050,10 +5053,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5076,19 +5079,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5137,7 +5140,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5155,7 +5158,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5164,15 +5167,15 @@
         <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5195,13 +5198,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5252,7 +5255,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5270,7 +5273,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5284,14 +5287,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5313,13 +5316,13 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5360,7 +5363,7 @@
         <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
@@ -5369,7 +5372,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5387,7 +5390,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5401,10 +5404,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5430,16 +5433,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5449,7 +5452,7 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>77</v>
@@ -5488,7 +5491,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5506,7 +5509,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5515,15 +5518,15 @@
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5546,16 +5549,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5605,7 +5608,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5623,7 +5626,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5632,15 +5635,15 @@
         <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5666,14 +5669,14 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5722,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5740,7 +5743,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5749,15 +5752,15 @@
         <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5780,17 +5783,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5839,7 +5842,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5857,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5866,15 +5869,15 @@
         <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5897,19 +5900,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5958,7 +5961,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5979,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5985,15 +5988,15 @@
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6016,19 +6019,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6077,7 +6080,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6095,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6104,15 +6107,15 @@
         <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6135,13 +6138,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6168,11 +6171,11 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6190,7 +6193,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6208,10 +6211,10 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6222,10 +6225,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6248,16 +6251,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6283,11 +6286,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6305,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6320,10 +6323,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6337,10 +6340,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6363,13 +6366,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6400,7 +6403,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6418,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6436,13 +6439,13 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -6450,10 +6453,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6476,13 +6479,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6513,7 +6516,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6531,7 +6534,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6549,24 +6552,24 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6589,13 +6592,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6646,7 +6649,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6664,7 +6667,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6678,14 +6681,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6707,13 +6710,13 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6754,7 +6757,7 @@
         <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
@@ -6763,7 +6766,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6781,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6795,10 +6798,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6821,19 +6824,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6900,7 +6903,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6909,15 +6912,15 @@
         <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6940,13 +6943,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6997,7 +7000,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7015,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7029,14 +7032,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7058,13 +7061,13 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7105,7 +7108,7 @@
         <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
@@ -7114,7 +7117,7 @@
         <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7132,7 +7135,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7146,10 +7149,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7175,16 +7178,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7233,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7251,7 +7254,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7260,15 +7263,15 @@
         <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7291,16 +7294,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7350,7 +7353,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7368,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7377,15 +7380,15 @@
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7411,14 +7414,14 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7467,7 +7470,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7485,7 +7488,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7494,15 +7497,15 @@
         <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7525,17 +7528,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7584,7 +7587,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7602,7 +7605,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7611,15 +7614,15 @@
         <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7642,19 +7645,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7703,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7721,7 +7724,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7730,15 +7733,15 @@
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7761,19 +7764,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7822,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7840,7 +7843,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7849,15 +7852,15 @@
         <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7880,13 +7883,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7916,10 +7919,10 @@
         <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7937,7 +7940,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7952,10 +7955,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7964,15 +7967,15 @@
         <v>77</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7995,13 +7998,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8052,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8067,10 +8070,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -8084,10 +8087,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8110,16 +8113,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8169,7 +8172,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8184,27 +8187,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8227,13 +8230,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8284,7 +8287,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8302,24 +8305,24 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8342,13 +8345,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8399,7 +8402,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8414,16 +8417,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8431,10 +8434,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8457,13 +8460,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8514,7 +8517,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8529,27 +8532,27 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8572,13 +8575,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8629,7 +8632,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8644,27 +8647,27 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8687,13 +8690,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8744,7 +8747,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8759,13 +8762,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8776,10 +8779,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8802,13 +8805,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8859,7 +8862,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8877,7 +8880,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8891,10 +8894,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8917,16 +8920,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8976,7 +8979,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8991,13 +8994,13 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -9008,10 +9011,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9034,16 +9037,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9093,7 +9096,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9108,27 +9111,27 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9151,13 +9154,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9208,7 +9211,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9226,28 +9229,28 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9266,13 +9269,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9323,7 +9326,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9338,10 +9341,10 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9355,10 +9358,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9366,10 +9369,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>89</v>
@@ -9381,13 +9384,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9426,10 +9429,10 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
@@ -9438,7 +9441,7 @@
         <v>137</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9450,30 +9453,30 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9496,13 +9499,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9553,7 +9556,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9571,7 +9574,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9585,14 +9588,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9614,13 +9617,13 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9670,7 +9673,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9688,7 +9691,7 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9702,14 +9705,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9731,16 +9734,16 @@
         <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9789,7 +9792,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9821,10 +9824,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9847,16 +9850,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9882,13 +9885,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9906,7 +9909,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9924,24 +9927,24 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9964,13 +9967,13 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10021,7 +10024,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10039,24 +10042,24 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10082,10 +10085,10 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10112,13 +10115,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -10136,7 +10139,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10154,10 +10157,10 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10168,10 +10171,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10197,10 +10200,10 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10227,13 +10230,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10251,7 +10254,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -10269,24 +10272,24 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10309,13 +10312,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10366,7 +10369,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10384,7 +10387,7 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10398,13 +10401,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
@@ -10426,13 +10429,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10483,7 +10486,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10495,30 +10498,30 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10541,13 +10544,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10598,7 +10601,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10616,7 +10619,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10630,14 +10633,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10659,13 +10662,13 @@
         <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10715,7 +10718,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10733,7 +10736,7 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10747,14 +10750,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10776,16 +10779,16 @@
         <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10834,7 +10837,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10866,10 +10869,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10892,16 +10895,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10927,13 +10930,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10951,7 +10954,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10969,24 +10972,24 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11009,13 +11012,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11066,7 +11069,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11084,24 +11087,24 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11124,13 +11127,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11181,7 +11184,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11199,7 +11202,7 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11213,14 +11216,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11242,13 +11245,13 @@
         <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11289,7 +11292,7 @@
         <v>136</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
@@ -11298,7 +11301,7 @@
         <v>137</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11316,7 +11319,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11330,10 +11333,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11356,16 +11359,16 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11415,7 +11418,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11424,7 +11427,7 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11447,10 +11450,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11476,13 +11479,13 @@
         <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11493,7 +11496,7 @@
         <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>77</v>
@@ -11508,13 +11511,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11532,7 +11535,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11564,10 +11567,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11590,16 +11593,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11649,7 +11652,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11667,7 +11670,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11681,10 +11684,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11707,16 +11710,16 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11766,7 +11769,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11798,10 +11801,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11827,10 +11830,10 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11857,13 +11860,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11881,7 +11884,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11899,10 +11902,10 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11913,10 +11916,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11942,10 +11945,10 @@
         <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11972,13 +11975,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11996,7 +11999,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>88</v>
@@ -12014,24 +12017,24 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12054,13 +12057,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12111,7 +12114,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12129,7 +12132,7 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12143,13 +12146,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>77</v>
@@ -12171,13 +12174,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12228,7 +12231,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>88</v>
@@ -12240,30 +12243,30 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12286,13 +12289,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12343,7 +12346,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12361,7 +12364,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12375,14 +12378,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12404,13 +12407,13 @@
         <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12460,7 +12463,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12478,7 +12481,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12492,14 +12495,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12521,16 +12524,16 @@
         <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12579,7 +12582,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12611,10 +12614,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12637,16 +12640,16 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12672,13 +12675,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12696,7 +12699,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12714,24 +12717,24 @@
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12754,13 +12757,13 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12811,7 +12814,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12829,24 +12832,24 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12869,13 +12872,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12926,7 +12929,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12944,7 +12947,7 @@
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12958,14 +12961,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12987,13 +12990,13 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13034,7 +13037,7 @@
         <v>136</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
@@ -13043,7 +13046,7 @@
         <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13061,7 +13064,7 @@
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13075,10 +13078,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13101,16 +13104,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13160,7 +13163,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13169,7 +13172,7 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
@@ -13192,10 +13195,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13221,13 +13224,13 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13238,7 +13241,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -13253,13 +13256,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -13277,7 +13280,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13309,10 +13312,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13335,16 +13338,16 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13394,7 +13397,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13412,7 +13415,7 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13426,10 +13429,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13452,16 +13455,16 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13511,7 +13514,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13543,10 +13546,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13572,10 +13575,10 @@
         <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13602,13 +13605,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13626,7 +13629,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13644,10 +13647,10 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>77</v>
@@ -13658,10 +13661,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13687,10 +13690,10 @@
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13702,7 +13705,7 @@
         <v>77</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>77</v>
@@ -13717,13 +13720,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13741,7 +13744,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13759,24 +13762,24 @@
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13799,13 +13802,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13856,7 +13859,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13874,7 +13877,7 @@
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13888,10 +13891,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13914,16 +13917,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13973,7 +13976,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13988,10 +13991,10 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -14000,7 +14003,7 @@
         <v>77</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,17 +465,17 @@
     <t>Medio por donde se notificó al paciente</t>
   </si>
   <si>
-    <t>MediodeContacto</t>
+    <t>Medio de Contacto</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Appointment.extension:ContactadoLE</t>
-  </si>
-  <si>
-    <t>ContactadoLE</t>
+    <t>Appointment.extension:ExtensionContactadoLE</t>
+  </si>
+  <si>
+    <t>ExtensionContactadoLE</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/Contactado}

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Extensión compleja, donde se indica si el paciente fue Contactado[true|false] o MotivoNoContactabilidad si la anterior fue false</t>
+  </si>
+  <si>
+    <t>Extension ContactadoLE</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -3336,7 +3339,7 @@
         <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3419,14 +3422,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3448,16 +3451,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3506,7 +3509,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3538,10 +3541,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3564,13 +3567,13 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3621,7 +3624,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3636,27 +3639,27 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3679,13 +3682,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3736,7 +3739,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3754,7 +3757,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3768,14 +3771,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3797,13 +3800,13 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3844,7 +3847,7 @@
         <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
@@ -3853,7 +3856,7 @@
         <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3871,7 +3874,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3914,16 +3917,16 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3948,13 +3951,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3972,7 +3975,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3990,7 +3993,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4030,19 +4033,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4067,13 +4070,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -4091,7 +4094,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4109,7 +4112,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4118,15 +4121,15 @@
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4152,16 +4155,16 @@
         <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4174,7 +4177,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4210,7 +4213,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4228,7 +4231,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4237,15 +4240,15 @@
         <v>77</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4268,16 +4271,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4291,7 +4294,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4327,7 +4330,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4345,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4354,15 +4357,15 @@
         <v>77</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4385,13 +4388,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4442,7 +4445,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4460,7 +4463,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4469,15 +4472,15 @@
         <v>77</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4500,16 +4503,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4559,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4577,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4586,15 +4589,15 @@
         <v>77</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4620,13 +4623,13 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4652,13 +4655,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4676,7 +4679,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4691,27 +4694,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4734,13 +4737,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4767,11 +4770,11 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4789,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4807,7 +4810,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4821,10 +4824,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4847,13 +4850,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4904,7 +4907,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4922,7 +4925,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4936,14 +4939,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4965,13 +4968,13 @@
         <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5012,7 +5015,7 @@
         <v>136</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
@@ -5021,7 +5024,7 @@
         <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5039,7 +5042,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5053,10 +5056,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5079,19 +5082,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5140,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5158,7 +5161,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5167,15 +5170,15 @@
         <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5198,13 +5201,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5255,7 +5258,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5273,7 +5276,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5287,14 +5290,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5316,13 +5319,13 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5363,7 +5366,7 @@
         <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5375,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5390,7 +5393,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5404,10 +5407,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5433,16 +5436,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5452,7 +5455,7 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>77</v>
@@ -5491,7 +5494,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5509,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5518,15 +5521,15 @@
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5549,16 +5552,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5608,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5626,7 +5629,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5635,15 +5638,15 @@
         <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5669,14 +5672,14 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5725,7 +5728,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5743,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5752,15 +5755,15 @@
         <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5783,17 +5786,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5842,7 +5845,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5860,7 +5863,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5869,15 +5872,15 @@
         <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5900,19 +5903,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5982,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5988,15 +5991,15 @@
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6019,19 +6022,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6080,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6098,7 +6101,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6107,15 +6110,15 @@
         <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6138,13 +6141,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6171,11 +6174,11 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6193,7 +6196,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6211,10 +6214,10 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6225,10 +6228,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6251,16 +6254,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6286,11 +6289,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6308,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6323,10 +6326,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6340,10 +6343,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6366,13 +6369,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6403,7 +6406,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6421,7 +6424,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6439,13 +6442,13 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6456,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6479,13 +6482,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6516,7 +6519,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6552,24 +6555,24 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6592,13 +6595,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6649,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6667,7 +6670,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6681,14 +6684,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6710,13 +6713,13 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6757,7 +6760,7 @@
         <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
@@ -6766,7 +6769,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6784,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6798,10 +6801,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6824,19 +6827,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6885,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6903,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6912,15 +6915,15 @@
         <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6943,13 +6946,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7000,7 +7003,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7018,7 +7021,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7032,14 +7035,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7061,13 +7064,13 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7108,7 +7111,7 @@
         <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
@@ -7117,7 +7120,7 @@
         <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7135,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7149,10 +7152,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7178,16 +7181,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7236,7 +7239,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7254,7 +7257,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7263,15 +7266,15 @@
         <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7294,16 +7297,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7353,7 +7356,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7371,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7380,15 +7383,15 @@
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7414,14 +7417,14 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7488,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7497,15 +7500,15 @@
         <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7528,17 +7531,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7587,7 +7590,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7605,7 +7608,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7614,15 +7617,15 @@
         <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7645,19 +7648,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7706,7 +7709,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7724,7 +7727,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7733,15 +7736,15 @@
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7764,19 +7767,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7825,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7843,7 +7846,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7852,15 +7855,15 @@
         <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7883,13 +7886,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7919,10 +7922,10 @@
         <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7940,7 +7943,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7955,10 +7958,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7967,15 +7970,15 @@
         <v>77</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7998,13 +8001,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8055,7 +8058,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8070,10 +8073,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -8087,10 +8090,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8113,16 +8116,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8172,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8187,27 +8190,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8230,13 +8233,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8287,7 +8290,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8305,24 +8308,24 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8345,13 +8348,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8402,7 +8405,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8417,16 +8420,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8434,10 +8437,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8460,13 +8463,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8517,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8532,27 +8535,27 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8575,13 +8578,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8632,7 +8635,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8647,27 +8650,27 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8690,13 +8693,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8747,7 +8750,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8762,13 +8765,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8779,10 +8782,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8805,13 +8808,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8862,7 +8865,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8880,7 +8883,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8894,10 +8897,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8920,16 +8923,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8979,7 +8982,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8994,13 +8997,13 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -9011,10 +9014,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9037,16 +9040,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9096,7 +9099,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9111,27 +9114,27 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9154,13 +9157,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9211,7 +9214,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9229,28 +9232,28 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9269,13 +9272,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9326,7 +9329,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9341,10 +9344,10 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9358,10 +9361,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9369,10 +9372,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>89</v>
@@ -9384,13 +9387,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9429,10 +9432,10 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
@@ -9441,7 +9444,7 @@
         <v>137</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9453,30 +9456,30 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9499,13 +9502,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9556,7 +9559,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9574,7 +9577,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9588,14 +9591,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9617,13 +9620,13 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9673,7 +9676,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9691,7 +9694,7 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9705,14 +9708,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9734,16 +9737,16 @@
         <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9792,7 +9795,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9824,10 +9827,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9850,16 +9853,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9885,13 +9888,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9909,7 +9912,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9927,24 +9930,24 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9967,13 +9970,13 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10024,7 +10027,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10042,24 +10045,24 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10085,10 +10088,10 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10115,13 +10118,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -10139,7 +10142,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10157,10 +10160,10 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10171,10 +10174,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10200,10 +10203,10 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10230,13 +10233,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10254,7 +10257,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -10272,24 +10275,24 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10312,13 +10315,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10369,7 +10372,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10387,7 +10390,7 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10401,13 +10404,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
@@ -10429,13 +10432,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10486,7 +10489,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10498,30 +10501,30 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10544,13 +10547,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10601,7 +10604,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10619,7 +10622,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10633,14 +10636,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10662,13 +10665,13 @@
         <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10718,7 +10721,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10736,7 +10739,7 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10750,14 +10753,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10779,16 +10782,16 @@
         <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10837,7 +10840,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10869,10 +10872,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10895,16 +10898,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10930,13 +10933,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10954,7 +10957,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10972,24 +10975,24 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11012,13 +11015,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11069,7 +11072,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11087,24 +11090,24 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11127,13 +11130,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11184,7 +11187,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11202,7 +11205,7 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11216,14 +11219,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11245,13 +11248,13 @@
         <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11292,7 +11295,7 @@
         <v>136</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
@@ -11301,7 +11304,7 @@
         <v>137</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11319,7 +11322,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11333,10 +11336,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11359,16 +11362,16 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11418,7 +11421,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11427,7 +11430,7 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11450,10 +11453,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11479,13 +11482,13 @@
         <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11496,7 +11499,7 @@
         <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>77</v>
@@ -11511,13 +11514,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11535,7 +11538,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11567,10 +11570,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11593,16 +11596,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11652,7 +11655,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11670,7 +11673,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11684,10 +11687,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11710,16 +11713,16 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11769,7 +11772,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11801,10 +11804,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11830,10 +11833,10 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11860,13 +11863,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11884,7 +11887,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11902,10 +11905,10 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11916,10 +11919,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11945,10 +11948,10 @@
         <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11975,13 +11978,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11999,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>88</v>
@@ -12017,24 +12020,24 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12057,13 +12060,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12114,7 +12117,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12132,7 +12135,7 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12146,13 +12149,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>77</v>
@@ -12174,13 +12177,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12231,7 +12234,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>88</v>
@@ -12243,30 +12246,30 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12289,13 +12292,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12346,7 +12349,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12364,7 +12367,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12378,14 +12381,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12407,13 +12410,13 @@
         <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12463,7 +12466,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12481,7 +12484,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12495,14 +12498,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12524,16 +12527,16 @@
         <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12582,7 +12585,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12614,10 +12617,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12640,16 +12643,16 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12675,13 +12678,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12699,7 +12702,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12717,24 +12720,24 @@
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12757,13 +12760,13 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12814,7 +12817,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12832,24 +12835,24 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12872,13 +12875,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12929,7 +12932,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12947,7 +12950,7 @@
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12961,14 +12964,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12990,13 +12993,13 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13037,7 +13040,7 @@
         <v>136</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
@@ -13046,7 +13049,7 @@
         <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13064,7 +13067,7 @@
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13078,10 +13081,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13104,16 +13107,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13163,7 +13166,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13172,7 +13175,7 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
@@ -13195,10 +13198,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13224,13 +13227,13 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13241,7 +13244,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -13256,13 +13259,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -13280,7 +13283,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13312,10 +13315,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13338,16 +13341,16 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13397,7 +13400,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13415,7 +13418,7 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13429,10 +13432,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13455,16 +13458,16 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13514,7 +13517,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13546,10 +13549,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13575,10 +13578,10 @@
         <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13605,13 +13608,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13629,7 +13632,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13647,10 +13650,10 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>77</v>
@@ -13661,10 +13664,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13690,10 +13693,10 @@
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13705,7 +13708,7 @@
         <v>77</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>77</v>
@@ -13720,13 +13723,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13744,7 +13747,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13762,24 +13765,24 @@
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13802,13 +13805,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13859,7 +13862,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13877,7 +13880,7 @@
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13891,10 +13894,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13917,16 +13920,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13976,7 +13979,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13991,10 +13994,10 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -14003,7 +14006,7 @@
         <v>77</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
